--- a/biology/Zoologie/Callianassa/Callianassa.xlsx
+++ b/biology/Zoologie/Callianassa/Callianassa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callianassa est un genre de crevettes de la famille des Callianassidae. Il doit son nom à la Néréide du même nom.
-Trois espèces appartenant à l'origine à ce genre (C. candida, C. tyrrhena et C. whitei) ont été placées en 2003 dans un nouveau genre, Pestarella[1], tandis que d'autres comme Callianassa filholi ont été placées en 2010 dans le genre Biffarius[2].
-Aujourd'hui 46 espèces sont habituellement reconnues au sein du genre Callianassa selon WoRMS[3].
+Trois espèces appartenant à l'origine à ce genre (C. candida, C. tyrrhena et C. whitei) ont été placées en 2003 dans un nouveau genre, Pestarella, tandis que d'autres comme Callianassa filholi ont été placées en 2010 dans le genre Biffarius.
+Aujourd'hui 46 espèces sont habituellement reconnues au sein du genre Callianassa selon WoRMS.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database                   (28 octobre 2014)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database                   (28 octobre 2014) :
 Callianassa abbreviata
 Callianassa affinis A. Milne-Edwards, 1861 †
 Callianassa alabamensis
@@ -642,7 +656,7 @@
 Callianassa whiteavesi
 Callianassa yagii
 Callianassa zeta
-Selon World Register of Marine Species                               (28 octobre 2014)[5] :
+Selon World Register of Marine Species                               (28 octobre 2014) :
 Callianassa anoploura Sakai, 2002
 Callianassa australis Kensley, 1974
 Callianassa chakratongae Sakai, 2002
